--- a/Assignment 1 - IT23772786.xlsx
+++ b/Assignment 1 - IT23772786.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\ITPM-Assignment-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71F64D3-1CBD-4CC4-8376-54963F26AB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0400845-96AC-410A-BF7E-0665A97660A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="556">
   <si>
     <t>TC ID</t>
   </si>
@@ -5596,13 +5596,16 @@
   </si>
   <si>
     <t>Incorrect handling of minor spelling typo in common word. (V and W issue)</t>
+  </si>
+  <si>
+    <t>Assignment 01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5787,6 +5790,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5884,7 +5894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5969,13 +5979,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5987,38 +6015,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6302,8 +6318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115:B118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6321,52 +6337,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:13" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="A2" s="48" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6398,25 +6416,25 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="19" t="s">
@@ -6427,13 +6445,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="37"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="19" t="s">
         <v>260</v>
       </c>
@@ -6442,13 +6460,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="37"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="19" t="s">
         <v>240</v>
       </c>
@@ -6457,13 +6475,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="37"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="25" t="s">
         <v>239</v>
       </c>
@@ -6472,25 +6490,25 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="19" t="s">
@@ -6501,13 +6519,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="19" t="s">
         <v>250</v>
       </c>
@@ -6516,13 +6534,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="19" t="s">
         <v>251</v>
       </c>
@@ -6531,38 +6549,38 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="1"/>
       <c r="I13" s="19" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="19" t="s">
@@ -6573,13 +6591,13 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="37"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="23" t="s">
         <v>265</v>
       </c>
@@ -6588,51 +6606,51 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="37"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="22"/>
       <c r="I16" s="19" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="37"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="1"/>
       <c r="I17" s="19" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="19" t="s">
@@ -6644,13 +6662,13 @@
       <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="37"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="19" t="s">
         <v>270</v>
       </c>
@@ -6660,13 +6678,13 @@
       <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="37"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="19" t="s">
         <v>272</v>
       </c>
@@ -6676,13 +6694,13 @@
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="37"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="21" t="s">
         <v>273</v>
       </c>
@@ -6692,25 +6710,25 @@
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="23" t="s">
@@ -6721,13 +6739,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="21" t="s">
         <v>278</v>
       </c>
@@ -6736,13 +6754,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="21" t="s">
         <v>279</v>
       </c>
@@ -6751,13 +6769,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="35"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="27" t="s">
         <v>282</v>
       </c>
@@ -6766,25 +6784,25 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="23" t="s">
@@ -6795,13 +6813,13 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="21" t="s">
         <v>287</v>
       </c>
@@ -6810,51 +6828,51 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="21"/>
       <c r="I28" s="26" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="35"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="27"/>
       <c r="I29" s="28" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H30" s="23" t="s">
@@ -6865,13 +6883,13 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="34"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="21" t="s">
         <v>300</v>
       </c>
@@ -6880,13 +6898,13 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="34"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="21" t="s">
         <v>301</v>
       </c>
@@ -6895,13 +6913,13 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="35"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="27" t="s">
         <v>306</v>
       </c>
@@ -6910,25 +6928,25 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H34" s="23" t="s">
@@ -6939,13 +6957,13 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="34"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="21" t="s">
         <v>305</v>
       </c>
@@ -6954,13 +6972,13 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="34"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="40"/>
       <c r="H36" s="21" t="s">
         <v>307</v>
       </c>
@@ -6969,13 +6987,13 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="35"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="27" t="s">
         <v>308</v>
       </c>
@@ -6984,25 +7002,25 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H38" s="23" t="s">
@@ -7013,13 +7031,13 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="34"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="40"/>
       <c r="H39" s="21" t="s">
         <v>416</v>
       </c>
@@ -7028,13 +7046,13 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="34"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="21" t="s">
         <v>417</v>
       </c>
@@ -7043,38 +7061,38 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="35"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="41"/>
       <c r="H41" s="27"/>
       <c r="I41" s="28" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G42" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H42" s="23" t="s">
@@ -7085,13 +7103,13 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="34"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="21" t="s">
         <v>319</v>
       </c>
@@ -7100,51 +7118,51 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="34"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="40"/>
       <c r="H44" s="21"/>
       <c r="I44" s="26" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="35"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="27"/>
       <c r="I45" s="28" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H46" s="23" t="s">
@@ -7155,13 +7173,13 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="34"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="40"/>
       <c r="H47" s="21" t="s">
         <v>328</v>
       </c>
@@ -7170,13 +7188,13 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="34"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="21" t="s">
         <v>329</v>
       </c>
@@ -7185,38 +7203,38 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="35"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="27"/>
       <c r="I49" s="28" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="G50" s="33" t="s">
+      <c r="G50" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H50" s="23" t="s">
@@ -7227,13 +7245,13 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="34"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="40"/>
       <c r="H51" s="21" t="s">
         <v>335</v>
       </c>
@@ -7242,13 +7260,13 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="34"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="40"/>
       <c r="H52" s="21" t="s">
         <v>336</v>
       </c>
@@ -7257,38 +7275,38 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="35"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="27"/>
       <c r="I53" s="28" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H54" s="23" t="s">
@@ -7299,13 +7317,13 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="34"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="40"/>
       <c r="H55" s="21" t="s">
         <v>343</v>
       </c>
@@ -7314,13 +7332,13 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="34"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="40"/>
       <c r="H56" s="21" t="s">
         <v>336</v>
       </c>
@@ -7329,38 +7347,38 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="35"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="27"/>
       <c r="I57" s="28" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="42" t="s">
         <v>376</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="F58" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="G58" s="33" t="s">
+      <c r="G58" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H58" s="23" t="s">
@@ -7371,13 +7389,13 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="34"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="21" t="s">
         <v>348</v>
       </c>
@@ -7386,51 +7404,51 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="34"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="40"/>
       <c r="H60" s="21"/>
       <c r="I60" s="26" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="35"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="27"/>
       <c r="I61" s="28" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F62" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="G62" s="33" t="s">
+      <c r="G62" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H62" s="23" t="s">
@@ -7441,13 +7459,13 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="34"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="40"/>
       <c r="H63" s="21" t="s">
         <v>355</v>
       </c>
@@ -7456,13 +7474,13 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="34"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="40"/>
       <c r="H64" s="21" t="s">
         <v>356</v>
       </c>
@@ -7471,13 +7489,13 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="35"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="41"/>
       <c r="H65" s="27" t="s">
         <v>357</v>
       </c>
@@ -7486,25 +7504,25 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="42" t="s">
         <v>370</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="G66" s="33" t="s">
+      <c r="G66" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H66" s="23" t="s">
@@ -7515,13 +7533,13 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="34"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="40"/>
       <c r="H67" s="21" t="s">
         <v>374</v>
       </c>
@@ -7530,13 +7548,13 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="34"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="40"/>
       <c r="H68" s="21" t="s">
         <v>375</v>
       </c>
@@ -7545,38 +7563,38 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="35"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="41"/>
       <c r="H69" s="27"/>
       <c r="I69" s="28" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H70" s="23" t="s">
@@ -7587,13 +7605,13 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="34"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="40"/>
       <c r="H71" s="21" t="s">
         <v>366</v>
       </c>
@@ -7602,13 +7620,13 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="34"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="40"/>
       <c r="H72" s="21" t="s">
         <v>367</v>
       </c>
@@ -7617,13 +7635,13 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="35"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="41"/>
       <c r="H73" s="27" t="s">
         <v>368</v>
       </c>
@@ -7632,25 +7650,25 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="G74" s="33" t="s">
+      <c r="G74" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H74" s="23" t="s">
@@ -7661,13 +7679,13 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="34"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="40"/>
       <c r="H75" s="21" t="s">
         <v>383</v>
       </c>
@@ -7676,13 +7694,13 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="34"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="40"/>
       <c r="H76" s="21" t="s">
         <v>384</v>
       </c>
@@ -7691,38 +7709,38 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="35"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="41"/>
       <c r="H77" s="27"/>
       <c r="I77" s="28" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="39" t="s">
         <v>388</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="E78" s="30" t="s">
+      <c r="E78" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="F78" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H78" s="23" t="s">
@@ -7733,13 +7751,13 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="34"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="40"/>
       <c r="H79" s="21" t="s">
         <v>392</v>
       </c>
@@ -7748,51 +7766,51 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="34"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="40"/>
       <c r="H80" s="21"/>
       <c r="I80" s="26" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="35"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="41"/>
       <c r="H81" s="27"/>
       <c r="I81" s="28" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="F82" s="30" t="s">
+      <c r="F82" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="G82" s="33" t="s">
+      <c r="G82" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H82" s="23" t="s">
@@ -7803,13 +7821,13 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="34"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="34"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="40"/>
       <c r="H83" s="21" t="s">
         <v>398</v>
       </c>
@@ -7818,13 +7836,13 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="34"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="34"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="40"/>
       <c r="H84" s="21" t="s">
         <v>399</v>
       </c>
@@ -7833,13 +7851,13 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="35"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="35"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="41"/>
       <c r="H85" s="27" t="s">
         <v>400</v>
       </c>
@@ -7848,25 +7866,25 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="E86" s="30" t="s">
+      <c r="E86" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="G86" s="33" t="s">
+      <c r="G86" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H86" s="23" t="s">
@@ -7877,13 +7895,13 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="34"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="40"/>
       <c r="H87" s="21" t="s">
         <v>408</v>
       </c>
@@ -7892,13 +7910,13 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="34"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="34"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="40"/>
       <c r="H88" s="21" t="s">
         <v>409</v>
       </c>
@@ -7907,13 +7925,13 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="35"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="35"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="41"/>
       <c r="H89" s="27" t="s">
         <v>410</v>
       </c>
@@ -7922,25 +7940,25 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="B90" s="33" t="s">
+      <c r="B90" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="C90" s="33" t="s">
+      <c r="C90" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="30" t="s">
+      <c r="D90" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="42" t="s">
         <v>550</v>
       </c>
-      <c r="F90" s="30" t="s">
+      <c r="F90" s="42" t="s">
         <v>550</v>
       </c>
-      <c r="G90" s="33" t="s">
+      <c r="G90" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H90" s="23" t="s">
@@ -7951,13 +7969,13 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="34"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="34"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="40"/>
       <c r="H91" s="21" t="s">
         <v>552</v>
       </c>
@@ -7966,13 +7984,13 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="34"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="34"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="40"/>
       <c r="H92" s="21" t="s">
         <v>553</v>
       </c>
@@ -7981,38 +7999,38 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="35"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="35"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="41"/>
       <c r="H93" s="27"/>
       <c r="I93" s="28" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="C94" s="33" t="s">
+      <c r="C94" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="E94" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="F94" s="30" t="s">
+      <c r="F94" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="G94" s="33" t="s">
+      <c r="G94" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H94" s="23" t="s">
@@ -8023,13 +8041,13 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="34"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="34"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="40"/>
       <c r="H95" s="21" t="s">
         <v>425</v>
       </c>
@@ -8038,13 +8056,13 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="34"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="34"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="40"/>
       <c r="H96" s="21" t="s">
         <v>426</v>
       </c>
@@ -8053,13 +8071,13 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="35"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="35"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="41"/>
       <c r="H97" s="27" t="s">
         <v>427</v>
       </c>
@@ -8068,25 +8086,25 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="39" t="s">
         <v>430</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="42" t="s">
         <v>436</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="E98" s="42" t="s">
         <v>437</v>
       </c>
-      <c r="F98" s="30" t="s">
+      <c r="F98" s="42" t="s">
         <v>437</v>
       </c>
-      <c r="G98" s="33" t="s">
+      <c r="G98" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H98" s="23" t="s">
@@ -8097,13 +8115,13 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="34"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="34"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="40"/>
       <c r="H99" s="21" t="s">
         <v>432</v>
       </c>
@@ -8112,13 +8130,13 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="34"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="34"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="40"/>
       <c r="H100" s="21" t="s">
         <v>435</v>
       </c>
@@ -8127,13 +8145,13 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="35"/>
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="35"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="41"/>
       <c r="H101" s="27" t="s">
         <v>434</v>
       </c>
@@ -8142,25 +8160,25 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="33" t="s">
+      <c r="A103" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="C103" s="33" t="s">
+      <c r="C103" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="42" t="s">
         <v>441</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="E103" s="42" t="s">
         <v>440</v>
       </c>
-      <c r="F103" s="30" t="s">
+      <c r="F103" s="42" t="s">
         <v>440</v>
       </c>
-      <c r="G103" s="33" t="s">
+      <c r="G103" s="39" t="s">
         <v>462</v>
       </c>
       <c r="H103" s="23" t="s">
@@ -8171,13 +8189,13 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="34"/>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="34"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="40"/>
       <c r="H104" s="21" t="s">
         <v>443</v>
       </c>
@@ -8186,13 +8204,13 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="34"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="40"/>
       <c r="H105" s="21" t="s">
         <v>444</v>
       </c>
@@ -8201,38 +8219,38 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="35"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="35"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="41"/>
       <c r="H106" s="27"/>
       <c r="I106" s="28" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="B107" s="33" t="s">
+      <c r="B107" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="C107" s="33" t="s">
+      <c r="C107" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="30" t="s">
+      <c r="D107" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E107" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="F107" s="30" t="s">
+      <c r="F107" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="G107" s="33" t="s">
+      <c r="G107" s="39" t="s">
         <v>462</v>
       </c>
       <c r="H107" s="23" t="s">
@@ -8243,13 +8261,13 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="34"/>
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="34"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="40"/>
       <c r="H108" s="21" t="s">
         <v>452</v>
       </c>
@@ -8258,51 +8276,51 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="34"/>
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="34"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="40"/>
       <c r="H109" s="21"/>
       <c r="I109" s="26" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="35"/>
-      <c r="B110" s="35"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="32"/>
-      <c r="G110" s="35"/>
+      <c r="A110" s="41"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="41"/>
       <c r="H110" s="27"/>
       <c r="I110" s="28" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="33" t="s">
+      <c r="A111" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="B111" s="33" t="s">
+      <c r="B111" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="C111" s="33" t="s">
+      <c r="C111" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="30" t="s">
+      <c r="D111" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="E111" s="30" t="s">
+      <c r="E111" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="F111" s="30" t="s">
+      <c r="F111" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="G111" s="33" t="s">
+      <c r="G111" s="39" t="s">
         <v>462</v>
       </c>
       <c r="H111" s="23" t="s">
@@ -8313,13 +8331,13 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="34"/>
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="34"/>
+      <c r="A112" s="40"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="40"/>
       <c r="H112" s="21" t="s">
         <v>460</v>
       </c>
@@ -8328,13 +8346,13 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="34"/>
-      <c r="B113" s="34"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="34"/>
+      <c r="A113" s="40"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="40"/>
       <c r="H113" s="21" t="s">
         <v>461</v>
       </c>
@@ -8343,38 +8361,38 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="35"/>
-      <c r="B114" s="35"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32"/>
-      <c r="G114" s="35"/>
+      <c r="A114" s="41"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="44"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="41"/>
       <c r="H114" s="27"/>
       <c r="I114" s="28" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="39" t="s">
         <v>467</v>
       </c>
-      <c r="B115" s="33" t="s">
+      <c r="B115" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="C115" s="33" t="s">
+      <c r="C115" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="D115" s="42" t="s">
         <v>464</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="42" t="s">
         <v>466</v>
       </c>
-      <c r="F115" s="30" t="s">
+      <c r="F115" s="42" t="s">
         <v>465</v>
       </c>
-      <c r="G115" s="33" t="s">
+      <c r="G115" s="39" t="s">
         <v>462</v>
       </c>
       <c r="H115" s="23" t="s">
@@ -8385,13 +8403,13 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="34"/>
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="34"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="40"/>
       <c r="H116" s="21" t="s">
         <v>469</v>
       </c>
@@ -8400,13 +8418,13 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="34"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="34"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="40"/>
       <c r="H117" s="21" t="s">
         <v>470</v>
       </c>
@@ -8415,13 +8433,13 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="35"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="32"/>
-      <c r="G118" s="35"/>
+      <c r="A118" s="41"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="41"/>
       <c r="H118" s="27" t="s">
         <v>471</v>
       </c>
@@ -8430,25 +8448,25 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="33" t="s">
+      <c r="A119" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="B119" s="33" t="s">
+      <c r="B119" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="C119" s="33" t="s">
+      <c r="C119" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="30" t="s">
+      <c r="D119" s="42" t="s">
         <v>476</v>
       </c>
-      <c r="E119" s="30" t="s">
+      <c r="E119" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="F119" s="30" t="s">
+      <c r="F119" s="42" t="s">
         <v>475</v>
       </c>
-      <c r="G119" s="33" t="s">
+      <c r="G119" s="39" t="s">
         <v>462</v>
       </c>
       <c r="H119" s="23" t="s">
@@ -8459,13 +8477,13 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="34"/>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="34"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="40"/>
       <c r="H120" s="21" t="s">
         <v>478</v>
       </c>
@@ -8474,13 +8492,13 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="34"/>
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="34"/>
+      <c r="A121" s="40"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="43"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="40"/>
       <c r="H121" s="21" t="s">
         <v>479</v>
       </c>
@@ -8489,13 +8507,13 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="35"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="35"/>
+      <c r="A122" s="41"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="41"/>
       <c r="H122" s="27" t="s">
         <v>480</v>
       </c>
@@ -8504,25 +8522,25 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="33" t="s">
+      <c r="A123" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="C123" s="33" t="s">
+      <c r="C123" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="30" t="s">
+      <c r="D123" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="E123" s="30" t="s">
+      <c r="E123" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="F123" s="30" t="s">
+      <c r="F123" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="G123" s="33" t="s">
+      <c r="G123" s="39" t="s">
         <v>462</v>
       </c>
       <c r="H123" s="23" t="s">
@@ -8533,13 +8551,13 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="34"/>
-      <c r="B124" s="34"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="34"/>
+      <c r="A124" s="40"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="43"/>
+      <c r="G124" s="40"/>
       <c r="H124" s="21" t="s">
         <v>487</v>
       </c>
@@ -8548,13 +8566,13 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="34"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="34"/>
+      <c r="A125" s="40"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="40"/>
       <c r="H125" s="21" t="s">
         <v>488</v>
       </c>
@@ -8563,38 +8581,38 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="35"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="35"/>
+      <c r="A126" s="41"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="44"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="41"/>
       <c r="H126" s="27"/>
       <c r="I126" s="28" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="33" t="s">
+      <c r="A127" s="39" t="s">
         <v>489</v>
       </c>
-      <c r="B127" s="33" t="s">
+      <c r="B127" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="C127" s="33" t="s">
+      <c r="C127" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="30" t="s">
+      <c r="D127" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="E127" s="30" t="s">
+      <c r="E127" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="F127" s="30" t="s">
+      <c r="F127" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="G127" s="33" t="s">
+      <c r="G127" s="39" t="s">
         <v>462</v>
       </c>
       <c r="H127" s="23" t="s">
@@ -8605,13 +8623,13 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="34"/>
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="34"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="40"/>
       <c r="H128" s="21" t="s">
         <v>495</v>
       </c>
@@ -8620,13 +8638,13 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="34"/>
-      <c r="B129" s="34"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="31"/>
-      <c r="E129" s="31"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="34"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="40"/>
       <c r="H129" s="21" t="s">
         <v>496</v>
       </c>
@@ -8635,38 +8653,38 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="35"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="35"/>
+      <c r="A130" s="41"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="44"/>
+      <c r="E130" s="44"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="41"/>
       <c r="H130" s="27"/>
       <c r="I130" s="28" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="33" t="s">
+      <c r="A131" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="B131" s="33" t="s">
+      <c r="B131" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="C131" s="33" t="s">
+      <c r="C131" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="30" t="s">
+      <c r="D131" s="42" t="s">
         <v>500</v>
       </c>
-      <c r="E131" s="30" t="s">
+      <c r="E131" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="F131" s="30" t="s">
+      <c r="F131" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="G131" s="33" t="s">
+      <c r="G131" s="39" t="s">
         <v>462</v>
       </c>
       <c r="H131" s="23" t="s">
@@ -8677,13 +8695,13 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="34"/>
-      <c r="B132" s="34"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="31"/>
-      <c r="E132" s="31"/>
-      <c r="F132" s="31"/>
-      <c r="G132" s="34"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="43"/>
+      <c r="G132" s="40"/>
       <c r="H132" s="21" t="s">
         <v>504</v>
       </c>
@@ -8692,13 +8710,13 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="34"/>
-      <c r="B133" s="34"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="31"/>
-      <c r="G133" s="34"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
+      <c r="G133" s="40"/>
       <c r="H133" s="21" t="s">
         <v>496</v>
       </c>
@@ -8707,38 +8725,38 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="35"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="35"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="35"/>
+      <c r="A134" s="41"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="44"/>
+      <c r="E134" s="44"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="41"/>
       <c r="H134" s="27"/>
       <c r="I134" s="28" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="39" t="s">
         <v>512</v>
       </c>
-      <c r="B135" s="33" t="s">
+      <c r="B135" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="C135" s="33" t="s">
+      <c r="C135" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="30" t="s">
+      <c r="D135" s="42" t="s">
         <v>506</v>
       </c>
-      <c r="E135" s="30" t="s">
+      <c r="E135" s="42" t="s">
         <v>508</v>
       </c>
-      <c r="F135" s="30" t="s">
+      <c r="F135" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="G135" s="33" t="s">
+      <c r="G135" s="39" t="s">
         <v>462</v>
       </c>
       <c r="H135" s="23" t="s">
@@ -8749,13 +8767,13 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="34"/>
-      <c r="B136" s="34"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="31"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="34"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
+      <c r="G136" s="40"/>
       <c r="H136" s="21" t="s">
         <v>511</v>
       </c>
@@ -8764,13 +8782,13 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="34"/>
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="34"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43"/>
+      <c r="G137" s="40"/>
       <c r="H137" s="21" t="s">
         <v>513</v>
       </c>
@@ -8779,13 +8797,13 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="35"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="35"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="32"/>
-      <c r="G138" s="35"/>
+      <c r="A138" s="41"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="44"/>
+      <c r="E138" s="44"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="41"/>
       <c r="H138" s="27" t="s">
         <v>514</v>
       </c>
@@ -8794,25 +8812,25 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="33" t="s">
+      <c r="A139" s="39" t="s">
         <v>515</v>
       </c>
-      <c r="B139" s="33" t="s">
+      <c r="B139" s="39" t="s">
         <v>519</v>
       </c>
-      <c r="C139" s="33" t="s">
+      <c r="C139" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="30" t="s">
+      <c r="D139" s="42" t="s">
         <v>516</v>
       </c>
-      <c r="E139" s="30" t="s">
+      <c r="E139" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="F139" s="30" t="s">
+      <c r="F139" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="G139" s="33" t="s">
+      <c r="G139" s="39" t="s">
         <v>462</v>
       </c>
       <c r="H139" s="23" t="s">
@@ -8823,13 +8841,13 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="34"/>
-      <c r="B140" s="34"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="31"/>
-      <c r="F140" s="31"/>
-      <c r="G140" s="34"/>
+      <c r="A140" s="40"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
+      <c r="G140" s="40"/>
       <c r="H140" s="21" t="s">
         <v>521</v>
       </c>
@@ -8838,13 +8856,13 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="34"/>
-      <c r="B141" s="34"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="34"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="43"/>
+      <c r="F141" s="43"/>
+      <c r="G141" s="40"/>
       <c r="H141" s="21" t="s">
         <v>522</v>
       </c>
@@ -8853,13 +8871,13 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="35"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="32"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32"/>
-      <c r="G142" s="35"/>
+      <c r="A142" s="41"/>
+      <c r="B142" s="41"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="44"/>
+      <c r="E142" s="44"/>
+      <c r="F142" s="44"/>
+      <c r="G142" s="41"/>
       <c r="H142" s="27" t="s">
         <v>523</v>
       </c>
@@ -8868,25 +8886,25 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="33" t="s">
+      <c r="A144" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B144" s="33" t="s">
+      <c r="B144" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C144" s="33" t="s">
+      <c r="C144" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D144" s="30" t="s">
+      <c r="D144" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="E144" s="30" t="s">
+      <c r="E144" s="42" t="s">
         <v>526</v>
       </c>
-      <c r="F144" s="30" t="s">
+      <c r="F144" s="42" t="s">
         <v>526</v>
       </c>
-      <c r="G144" s="33" t="s">
+      <c r="G144" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H144" s="23" t="s">
@@ -8897,13 +8915,13 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="34"/>
-      <c r="B145" s="34"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="31"/>
-      <c r="F145" s="31"/>
-      <c r="G145" s="34"/>
+      <c r="A145" s="40"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="43"/>
+      <c r="F145" s="43"/>
+      <c r="G145" s="40"/>
       <c r="H145" s="21" t="s">
         <v>528</v>
       </c>
@@ -8912,13 +8930,13 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="34"/>
-      <c r="B146" s="34"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="34"/>
+      <c r="A146" s="40"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="43"/>
+      <c r="F146" s="43"/>
+      <c r="G146" s="40"/>
       <c r="H146" s="21" t="s">
         <v>529</v>
       </c>
@@ -8927,13 +8945,13 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="35"/>
-      <c r="B147" s="35"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
-      <c r="G147" s="35"/>
+      <c r="A147" s="41"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="41"/>
       <c r="H147" s="27" t="s">
         <v>530</v>
       </c>
@@ -8942,25 +8960,25 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="33" t="s">
+      <c r="A148" s="39" t="s">
         <v>535</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="33" t="s">
+      <c r="C148" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D148" s="30" t="s">
+      <c r="D148" s="42" t="s">
         <v>533</v>
       </c>
-      <c r="E148" s="30" t="s">
+      <c r="E148" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="F148" s="30" t="s">
+      <c r="F148" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="G148" s="33" t="s">
+      <c r="G148" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H148" s="23" t="s">
@@ -8971,13 +8989,13 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="34"/>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="31"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="34"/>
+      <c r="A149" s="40"/>
+      <c r="B149" s="40"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="40"/>
       <c r="H149" s="21" t="s">
         <v>536</v>
       </c>
@@ -8986,13 +9004,13 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="34"/>
-      <c r="B150" s="34"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="31"/>
-      <c r="E150" s="31"/>
-      <c r="F150" s="31"/>
-      <c r="G150" s="34"/>
+      <c r="A150" s="40"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43"/>
+      <c r="F150" s="43"/>
+      <c r="G150" s="40"/>
       <c r="H150" s="21" t="s">
         <v>537</v>
       </c>
@@ -9001,13 +9019,13 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="35"/>
-      <c r="B151" s="35"/>
-      <c r="C151" s="35"/>
-      <c r="D151" s="32"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="32"/>
-      <c r="G151" s="35"/>
+      <c r="A151" s="41"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="44"/>
+      <c r="E151" s="44"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="41"/>
       <c r="H151" s="27" t="s">
         <v>536</v>
       </c>
@@ -9016,25 +9034,25 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="33" t="s">
+      <c r="A153" s="39" t="s">
         <v>532</v>
       </c>
-      <c r="B153" s="33" t="s">
+      <c r="B153" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="C153" s="33" t="s">
+      <c r="C153" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="D153" s="30" t="s">
+      <c r="D153" s="42" t="s">
         <v>541</v>
       </c>
-      <c r="E153" s="30" t="s">
+      <c r="E153" s="42" t="s">
         <v>542</v>
       </c>
-      <c r="F153" s="30" t="s">
+      <c r="F153" s="42" t="s">
         <v>543</v>
       </c>
-      <c r="G153" s="33" t="s">
+      <c r="G153" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H153" s="23" t="s">
@@ -9045,13 +9063,13 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="34"/>
-      <c r="B154" s="34"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="31"/>
-      <c r="G154" s="34"/>
+      <c r="A154" s="40"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="43"/>
+      <c r="G154" s="40"/>
       <c r="H154" s="21" t="s">
         <v>545</v>
       </c>
@@ -9060,13 +9078,13 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="34"/>
-      <c r="B155" s="34"/>
-      <c r="C155" s="34"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="31"/>
-      <c r="F155" s="31"/>
-      <c r="G155" s="34"/>
+      <c r="A155" s="40"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="43"/>
+      <c r="F155" s="43"/>
+      <c r="G155" s="40"/>
       <c r="H155" s="21" t="s">
         <v>546</v>
       </c>
@@ -9075,13 +9093,13 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="35"/>
-      <c r="B156" s="35"/>
-      <c r="C156" s="35"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="32"/>
-      <c r="G156" s="35"/>
+      <c r="A156" s="41"/>
+      <c r="B156" s="41"/>
+      <c r="C156" s="41"/>
+      <c r="D156" s="44"/>
+      <c r="E156" s="44"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="41"/>
       <c r="H156" s="27"/>
       <c r="I156" s="29" t="s">
         <v>548</v>
@@ -9089,9 +9107,248 @@
     </row>
   </sheetData>
   <mergeCells count="263">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="G153:G156"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="E153:E156"/>
+    <mergeCell ref="F144:F147"/>
+    <mergeCell ref="G144:G147"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="E148:E151"/>
+    <mergeCell ref="F148:F151"/>
+    <mergeCell ref="G148:G151"/>
+    <mergeCell ref="A144:A147"/>
+    <mergeCell ref="B144:B147"/>
+    <mergeCell ref="C144:C147"/>
+    <mergeCell ref="D144:D147"/>
+    <mergeCell ref="E144:E147"/>
+    <mergeCell ref="F135:F138"/>
+    <mergeCell ref="G135:G138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="C139:C142"/>
+    <mergeCell ref="D139:D142"/>
+    <mergeCell ref="E139:E142"/>
+    <mergeCell ref="F139:F142"/>
+    <mergeCell ref="G139:G142"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="C135:C138"/>
+    <mergeCell ref="D135:D138"/>
+    <mergeCell ref="E135:E138"/>
+    <mergeCell ref="F127:F130"/>
+    <mergeCell ref="G127:G130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="D131:D134"/>
+    <mergeCell ref="E131:E134"/>
+    <mergeCell ref="F131:F134"/>
+    <mergeCell ref="G131:G134"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="E127:E130"/>
+    <mergeCell ref="F119:F122"/>
+    <mergeCell ref="G119:G122"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="E123:E126"/>
+    <mergeCell ref="F123:F126"/>
+    <mergeCell ref="G123:G126"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="F111:F114"/>
+    <mergeCell ref="G111:G114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="D115:D118"/>
+    <mergeCell ref="E115:E118"/>
+    <mergeCell ref="F115:F118"/>
+    <mergeCell ref="G115:G118"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="G107:G110"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:M2"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
@@ -9113,245 +9370,6 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F101"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="G107:G110"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="F111:F114"/>
-    <mergeCell ref="G111:G114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="D115:D118"/>
-    <mergeCell ref="E115:E118"/>
-    <mergeCell ref="F115:F118"/>
-    <mergeCell ref="G115:G118"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="F119:F122"/>
-    <mergeCell ref="G119:G122"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="E123:E126"/>
-    <mergeCell ref="F123:F126"/>
-    <mergeCell ref="G123:G126"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="D119:D122"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="F127:F130"/>
-    <mergeCell ref="G127:G130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="D131:D134"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="F131:F134"/>
-    <mergeCell ref="G131:G134"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="E127:E130"/>
-    <mergeCell ref="F135:F138"/>
-    <mergeCell ref="G135:G138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="C139:C142"/>
-    <mergeCell ref="D139:D142"/>
-    <mergeCell ref="E139:E142"/>
-    <mergeCell ref="F139:F142"/>
-    <mergeCell ref="G139:G142"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="B135:B138"/>
-    <mergeCell ref="C135:C138"/>
-    <mergeCell ref="D135:D138"/>
-    <mergeCell ref="E135:E138"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="G153:G156"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="E153:E156"/>
-    <mergeCell ref="F144:F147"/>
-    <mergeCell ref="G144:G147"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="E148:E151"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="G148:G151"/>
-    <mergeCell ref="A144:A147"/>
-    <mergeCell ref="B144:B147"/>
-    <mergeCell ref="C144:C147"/>
-    <mergeCell ref="D144:D147"/>
-    <mergeCell ref="E144:E147"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assignment 1 - IT23772786.xlsx
+++ b/Assignment 1 - IT23772786.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\ITPM-Assignment-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0400845-96AC-410A-BF7E-0665A97660A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C15965E-191D-43E7-B5C1-83469353B18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="557">
   <si>
     <t>TC ID</t>
   </si>
@@ -5598,14 +5598,17 @@
     <t>Incorrect handling of minor spelling typo in common word. (V and W issue)</t>
   </si>
   <si>
-    <t>Assignment 01</t>
+    <t>Student id : IT23772786</t>
+  </si>
+  <si>
+    <t>ITPM-Assignment 01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5797,6 +5800,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5894,7 +5904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6035,6 +6045,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6349,7 +6362,7 @@
     </row>
     <row r="2" spans="1:13" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -6365,7 +6378,9 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="49" t="s">
+        <v>555</v>
+      </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
